--- a/analysis/Flow Meter Calibration/FlowTest4.xlsx
+++ b/analysis/Flow Meter Calibration/FlowTest4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam-n-Abbs\Documents\GitHub\liquid-engine-test-stand\analysis\Flow Meter Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jntil\Documents\Git_Repos\liquid-engine-test-stand\analysis\Flow Meter Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6ED36B-CCB1-4023-B46A-B8600320D0E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F92871-8904-45FA-8F5F-F13A6BC26B12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Data" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="Interactive Bar Graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="92512"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -190,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -431,6 +423,2031 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.6360017497812773E-2"/>
+                  <c:y val="-0.29678368328958882"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simple Data'!$B$37:$B$315</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>3.5195310000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6289060000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7226560000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8164060000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9257810000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0273440000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1210940000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2304690000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3242190000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4179690000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5273440000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6210940000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7148440000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8242190000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9179690000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.015625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.21875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.328125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.421875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5195309999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6289059999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7226559999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4648440000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4648440000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4648440000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4648440000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4804690000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4804690000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4804690000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5273440000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6210940000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.7304690000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8242190000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.9296879999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.03125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.1289059999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.2304690000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.3242190000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.4179690000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.53125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.71875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.828125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.921875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.0234380000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1328130000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.2265630000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.3203130000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.4296880000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.5234380000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.6328130000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.7265630000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.8164060000000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.9257810000000006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0273439999999994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.1210939999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.2304689999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.3242189999999994</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.421875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.53125</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.71875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.828125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.9335939999999994</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.03125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.21875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.32813</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.433590000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.527340000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10.71875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10.82813</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.92188</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.027340000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11.23047</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>11.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.527340000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11.73047</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.82422</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.933590000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>12.027340000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.121090000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12.23047</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12.32422</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.41797</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12.527340000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12.73047</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>12.82422</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12.91797</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.03125</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.222659999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.335940000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>13.51953</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13.628909999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13.722659999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13.83203</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14.03125</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14.128909999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.222659999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.33203</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14.42578</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14.51953</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14.628909999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>14.722659999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>14.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>15.03125</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>15.125</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>15.23438</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>15.32422</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>15.42188</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>15.51953</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>15.628909999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>15.726559999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>15.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>15.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>16.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>16.23047</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>16.32422</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>16.433589999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16.53125</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>16.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>16.73047</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>16.82422</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>16.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>17.03125</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>17.125</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>17.21875</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>17.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>17.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>17.53125</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>17.625</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>17.71875</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>17.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>17.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>18.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>18.125</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>18.21875</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>18.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>18.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>18.53125</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>18.625</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>18.71875</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>18.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>18.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>19.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>19.132809999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>19.226559999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>19.335940000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>19.42578</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>19.51953</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>19.628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>19.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>19.83203</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>19.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>20.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>20.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>20.23047</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>20.32422</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>20.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>20.53125</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20.625</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>20.734380000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>20.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>20.933589999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>21.03125</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>21.128910000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>21.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>21.33203</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>21.42578</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>21.51953</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>21.628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>21.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>21.83203</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>21.92578</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>22.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>22.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>22.23047</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>22.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>22.433589999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>22.53125</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>22.625</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>22.734380000000002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>22.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>22.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>23.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>23.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>23.226559999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>23.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>23.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>23.527339999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>23.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>23.73047</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>23.82422</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>23.933589999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>24.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>24.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>24.23047</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>24.32422</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>24.433589999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>24.527339999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>24.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>24.73047</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>24.82422</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>24.933589999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>25.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>25.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>25.23047</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>25.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>25.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>25.51953</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>25.628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>25.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>25.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>25.933589999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>26.03125</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>26.128910000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>26.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>26.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>26.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>26.535160000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>26.628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>26.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>26.83203</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>26.933589999999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>27.03125</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>27.125</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>27.21875</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>27.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>27.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>27.535160000000001</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>27.628910000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>27.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>27.83203</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>27.933589999999999</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>28.03125</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>28.125</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>28.234380000000002</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>28.328130000000002</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>28.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>28.53125</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>28.625</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>28.734380000000002</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>28.828130000000002</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>28.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>29.01953</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>29.128910000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>29.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>29.33203</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>29.42578</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>29.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>29.632809999999999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>29.726559999999999</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>29.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>29.929690000000001</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>30.03125</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>30.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30.23047</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>30.32422</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>30.433589999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>30.527339999999999</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>30.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>30.73047</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>30.82422</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>30.91797</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>31.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>31.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>31.23047</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>31.32422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simple Data'!$C$37:$C$315</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C8C-4B04-B9CA-EE66DE5FED69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="528689584"/>
+        <c:axId val="528687616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="528689584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528687616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="528687616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528689584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -712,7 +2729,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1045,7 +3062,604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016B1F99-D36C-42D7-A047-4300311CA1F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1088,7 +3702,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1512,12 +4126,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11649,11 +14263,12 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -11703,7 +14318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
